--- a/medicine/Enfance/Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire/Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire.xlsx
+++ b/medicine/Enfance/Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire/Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Questionnaire_d%27%C3%A9valuation_du_risque_de_d%C3%A9crochage_scolaire_en_milieu_scolaire</t>
+          <t>Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le questionnaire d'évaluation du risque de décrochage scolaire en milieu scolaire (DEMS) a été élaboré afin d'évaluer le risque de décrochage scolaire en France et au Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Questionnaire_d%27%C3%A9valuation_du_risque_de_d%C3%A9crochage_scolaire_en_milieu_scolaire</t>
+          <t>Questionnaire_d'évaluation_du_risque_de_décrochage_scolaire_en_milieu_scolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cet instrument élaboré par Potvin, Doré-Côté, Fortin, Royer, Marcotte et Leclerc (2004) au Québec a pour but d’identifier les élèves de niveau secondaire à risque de décrocher de l’école[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet instrument élaboré par Potvin, Doré-Côté, Fortin, Royer, Marcotte et Leclerc (2004) au Québec a pour but d’identifier les élèves de niveau secondaire à risque de décrocher de l’école. 
 Le questionnaire comporte 35 points, répartis en cinq sous-échelles qui composent l’échelle totale : 
 Implication parentale
 Attitude envers l’école
